--- a/data/trans_orig/P23_1_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>288203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262412</v>
+        <v>261679</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>314508</v>
+        <v>314462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3824942080202257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3482652763559254</v>
+        <v>0.3472935250771451</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4174063580168438</v>
+        <v>0.4173449410786375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>712</v>
@@ -763,19 +763,19 @@
         <v>807378</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>781114</v>
+        <v>781422</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>831365</v>
+        <v>831370</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8136706518908529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7872023877528711</v>
+        <v>0.7875125093825602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8378447953980834</v>
+        <v>0.8378494346556752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1005</v>
@@ -784,19 +784,19 @@
         <v>1095580</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1055621</v>
+        <v>1054172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1136907</v>
+        <v>1135847</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6275706086935224</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6046809930871391</v>
+        <v>0.6038511029415669</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6512435410685267</v>
+        <v>0.6506365548663626</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>240870</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>215372</v>
+        <v>215500</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264897</v>
+        <v>263971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3196754235757465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2858356916451354</v>
+        <v>0.2860060965104403</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3515639215146494</v>
+        <v>0.3503347367961252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -834,19 +834,19 @@
         <v>48673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35347</v>
+        <v>35563</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63513</v>
+        <v>65259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04905226874612548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03562209962044103</v>
+        <v>0.03584046745417304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06400823434520329</v>
+        <v>0.06576801859127544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>298</v>
@@ -855,19 +855,19 @@
         <v>289543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>258511</v>
+        <v>260878</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>320713</v>
+        <v>323455</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1658559149562174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1480805302810278</v>
+        <v>0.1494363849081278</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1837108788032824</v>
+        <v>0.185281480257506</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>16582</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9604</v>
+        <v>9732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25952</v>
+        <v>27069</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02200747051064705</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0127456724191625</v>
+        <v>0.01291662248890436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03444323522608495</v>
+        <v>0.03592487589129605</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -905,19 +905,19 @@
         <v>13611</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7719</v>
+        <v>7179</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23628</v>
+        <v>22815</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01371704163165424</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007779262222128891</v>
+        <v>0.007235215383521452</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02381193783734004</v>
+        <v>0.02299286124236391</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -926,19 +926,19 @@
         <v>30193</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20724</v>
+        <v>20924</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42631</v>
+        <v>43516</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01729527322207916</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01187087805470199</v>
+        <v>0.01198594707927518</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02441980853753913</v>
+        <v>0.02492697645411706</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>207828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>180715</v>
+        <v>184858</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231775</v>
+        <v>236492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2758228978933808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2398400890017343</v>
+        <v>0.2453388691294238</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3076055927629573</v>
+        <v>0.313865478235053</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -976,19 +976,19 @@
         <v>122604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105061</v>
+        <v>103366</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145786</v>
+        <v>144162</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1235600377313674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1058803754986472</v>
+        <v>0.1041717908102026</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1469223655803636</v>
+        <v>0.1452859049547996</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>320</v>
@@ -997,19 +997,19 @@
         <v>330432</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>298959</v>
+        <v>296635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>363509</v>
+        <v>363047</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1892782031281809</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1712496888399824</v>
+        <v>0.169918770036954</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2082252581010424</v>
+        <v>0.2079607854655888</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>914433</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>871795</v>
+        <v>870261</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>964403</v>
+        <v>957979</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4403965976052036</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4198619824314795</v>
+        <v>0.4191231663419812</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4644624900264967</v>
+        <v>0.4613687253804235</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1047</v>
@@ -1122,19 +1122,19 @@
         <v>1093120</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1045671</v>
+        <v>1049886</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1137562</v>
+        <v>1139969</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5503619785914611</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5264724398545633</v>
+        <v>0.5285943784546701</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5727374403669085</v>
+        <v>0.5739495789443945</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1917</v>
@@ -1143,19 +1143,19 @@
         <v>2007553</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1941719</v>
+        <v>1940706</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2068503</v>
+        <v>2066691</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.49415850692367</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4779535119263581</v>
+        <v>0.4777043436103895</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5091613821409873</v>
+        <v>0.508715343978774</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>357037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>321429</v>
+        <v>321957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>391896</v>
+        <v>393040</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1719514808791633</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1548021147756254</v>
+        <v>0.1550564897224343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1887394471124061</v>
+        <v>0.1892902906893175</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -1193,19 +1193,19 @@
         <v>232105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>206122</v>
+        <v>202548</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>264300</v>
+        <v>262863</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1168598849900372</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1037778172033894</v>
+        <v>0.1019783493906942</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1330693325017355</v>
+        <v>0.1323457343222164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>554</v>
@@ -1214,19 +1214,19 @@
         <v>589143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>543213</v>
+        <v>546470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>630249</v>
+        <v>640620</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1450172825356779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1337117696695412</v>
+        <v>0.1345135444821016</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1551356051654509</v>
+        <v>0.1576884501980387</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>48520</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35504</v>
+        <v>35921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64527</v>
+        <v>64628</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02336735060645707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01709901792124437</v>
+        <v>0.01729993036295059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03107637448468207</v>
+        <v>0.03112545314183718</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -1264,19 +1264,19 @@
         <v>41752</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29805</v>
+        <v>30149</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57813</v>
+        <v>56652</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0210211900215358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01500594327779869</v>
+        <v>0.01517925385159912</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0291076848841668</v>
+        <v>0.02852321486031201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>87</v>
@@ -1285,19 +1285,19 @@
         <v>90272</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>72358</v>
+        <v>73400</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>110308</v>
+        <v>111322</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02222031622634738</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01781097079723708</v>
+        <v>0.01806748048542384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02715237341588398</v>
+        <v>0.02740180460460783</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>756395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>707150</v>
+        <v>714985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>796441</v>
+        <v>799261</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3642845709091761</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3405679423370485</v>
+        <v>0.3443410322870161</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3835709620885515</v>
+        <v>0.3849293113382365</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>599</v>
@@ -1335,19 +1335,19 @@
         <v>619207</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>577948</v>
+        <v>573289</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>666359</v>
+        <v>660292</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3117569463969659</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2909842591196969</v>
+        <v>0.2886385870379487</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3354969175507826</v>
+        <v>0.3324424201732579</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1300</v>
@@ -1356,19 +1356,19 @@
         <v>1375601</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1317291</v>
+        <v>1317274</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1438516</v>
+        <v>1442723</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3386038943143047</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.324250913202916</v>
+        <v>0.324246514727096</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3540903582896766</v>
+        <v>0.3551259140608671</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>308311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>283926</v>
+        <v>283916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334884</v>
+        <v>332096</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5648638425508506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5201880083567196</v>
+        <v>0.5201690451579773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6135495252897564</v>
+        <v>0.6084410626717954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>310</v>
@@ -1481,19 +1481,19 @@
         <v>323399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>300284</v>
+        <v>300628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346816</v>
+        <v>346323</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5899144825381833</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5477500529794139</v>
+        <v>0.5483780855362695</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6326295481906605</v>
+        <v>0.6317313946874931</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>599</v>
@@ -1502,19 +1502,19 @@
         <v>631709</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>594488</v>
+        <v>598755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>663133</v>
+        <v>663118</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.577416621494659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5433942027344776</v>
+        <v>0.5472945798693308</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6061393288728488</v>
+        <v>0.6061256577127727</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>101350</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82977</v>
+        <v>82487</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>122039</v>
+        <v>122042</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1856850656577103</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1520240227516661</v>
+        <v>0.1511268411275891</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.223591585398487</v>
+        <v>0.2235967184934348</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -1552,19 +1552,19 @@
         <v>104362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>87458</v>
+        <v>86249</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>124494</v>
+        <v>124634</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1903684797263603</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1595329296855944</v>
+        <v>0.157327320730741</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2270909960369442</v>
+        <v>0.2273463796782565</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>188</v>
@@ -1573,19 +1573,19 @@
         <v>205712</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>181198</v>
+        <v>179716</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>236268</v>
+        <v>234061</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1880319063586191</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1656244862855928</v>
+        <v>0.1642704097927226</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2159620769285711</v>
+        <v>0.213944517818678</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>17868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10696</v>
+        <v>10770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27578</v>
+        <v>27709</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03273714669675701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01959585949307789</v>
+        <v>0.01973288002379051</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05052549111930982</v>
+        <v>0.05076601559096433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1623,19 +1623,19 @@
         <v>18097</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10637</v>
+        <v>11255</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27675</v>
+        <v>28693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03301146859824301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01940256422887589</v>
+        <v>0.02053017960933795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05048301023469305</v>
+        <v>0.05233941090510333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1644,19 +1644,19 @@
         <v>35966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26439</v>
+        <v>25367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51525</v>
+        <v>48662</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03287460834206987</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0241663382796558</v>
+        <v>0.02318683173502123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04709642607214837</v>
+        <v>0.04447961484089194</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>118286</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97023</v>
+        <v>98878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137117</v>
+        <v>139949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2167139450946821</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1777582944159439</v>
+        <v>0.1811562880571178</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2512150436693375</v>
+        <v>0.2564039588709265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -1694,19 +1694,19 @@
         <v>102354</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84827</v>
+        <v>82628</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>122609</v>
+        <v>120937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1867055691372134</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1547337511214142</v>
+        <v>0.1507223139464115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2236523747818998</v>
+        <v>0.2206022392513097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>203</v>
@@ -1715,19 +1715,19 @@
         <v>220640</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>194979</v>
+        <v>195392</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246606</v>
+        <v>246407</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2016768638046521</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1782215086704764</v>
+        <v>0.1785989069806058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2254116848425455</v>
+        <v>0.225229004668514</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>1510946</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1451658</v>
+        <v>1454051</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1566399</v>
+        <v>1570162</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4475973935950909</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4300341051349529</v>
+        <v>0.4307429135278463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4640245323364791</v>
+        <v>0.465139408574214</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2069</v>
@@ -1840,19 +1840,19 @@
         <v>2223896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2165544</v>
+        <v>2164181</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2279157</v>
+        <v>2277949</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6305951664164096</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6140493301748439</v>
+        <v>0.6136627093857558</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6462646371514316</v>
+        <v>0.6459219828674873</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3521</v>
@@ -1861,19 +1861,19 @@
         <v>3734842</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3644213</v>
+        <v>3649463</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3817872</v>
+        <v>3817558</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5410977114805414</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5279675135852974</v>
+        <v>0.5287281823636339</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.553126930303711</v>
+        <v>0.5530814945358553</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>699257</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>651302</v>
+        <v>651646</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>749782</v>
+        <v>747678</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2071453637806265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1929393247530498</v>
+        <v>0.1930412286009688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2221127962581367</v>
+        <v>0.221489513189711</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>363</v>
@@ -1911,19 +1911,19 @@
         <v>385140</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>349619</v>
+        <v>345423</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>428075</v>
+        <v>421348</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1092082246873889</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09913589514062984</v>
+        <v>0.09794626446716953</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.121382571091102</v>
+        <v>0.1194751370251938</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1040</v>
@@ -1932,19 +1932,19 @@
         <v>1084397</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1021826</v>
+        <v>1020196</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1141317</v>
+        <v>1144199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1571056638606146</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1480403832813421</v>
+        <v>0.1478043712383265</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1653521604615193</v>
+        <v>0.1657696097102806</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>82970</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>67529</v>
+        <v>67115</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>104604</v>
+        <v>102241</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02457881677055091</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0200046361730795</v>
+        <v>0.01988193033848081</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03098756562079767</v>
+        <v>0.03028747514788439</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -1982,19 +1982,19 @@
         <v>73460</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>58037</v>
+        <v>57670</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>92577</v>
+        <v>90489</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02082995195445927</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01645657882043179</v>
+        <v>0.01635267366395478</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02625072295564561</v>
+        <v>0.02565849838565883</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>150</v>
@@ -2003,19 +2003,19 @@
         <v>156430</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>134119</v>
+        <v>133571</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>182667</v>
+        <v>182796</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02266338333871127</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01943089826236823</v>
+        <v>0.01935161210911421</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02646445791356812</v>
+        <v>0.02648315143986582</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>1082508</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1030996</v>
+        <v>1029301</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1139499</v>
+        <v>1140443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3206784258537317</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3054187924027151</v>
+        <v>0.3049165615361447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3375610733808575</v>
+        <v>0.3378409658839782</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>818</v>
@@ -2053,19 +2053,19 @@
         <v>844165</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>795953</v>
+        <v>795597</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>894485</v>
+        <v>896316</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2393666569417422</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2256958571276005</v>
+        <v>0.2255950128371845</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2536351529474195</v>
+        <v>0.2541540845927509</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1823</v>
@@ -2074,19 +2074,19 @@
         <v>1926673</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1857513</v>
+        <v>1852700</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2005792</v>
+        <v>2001051</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2791332413201327</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2691133468645274</v>
+        <v>0.2684160357699701</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2905958591588667</v>
+        <v>0.2899089393498858</v>
       </c>
     </row>
     <row r="23">
@@ -2417,19 +2417,19 @@
         <v>248828</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226751</v>
+        <v>224124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>273399</v>
+        <v>271349</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4301039962651015</v>
+        <v>0.4301039962651014</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3919439004806049</v>
+        <v>0.3874033407558557</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4725765625555984</v>
+        <v>0.4690322801245936</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1217</v>
@@ -2438,19 +2438,19 @@
         <v>688169</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>669756</v>
+        <v>668556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>702985</v>
+        <v>703957</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8371498614905893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8147504636687561</v>
+        <v>0.8132903117764179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8551737234937389</v>
+        <v>0.8563553179466534</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1511</v>
@@ -2459,19 +2459,19 @@
         <v>936997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>905241</v>
+        <v>905144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>964572</v>
+        <v>968189</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6690122721940978</v>
+        <v>0.6690122721940976</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6463388886041899</v>
+        <v>0.6462694130266038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.688701337365717</v>
+        <v>0.6912833911750664</v>
       </c>
     </row>
     <row r="5">
@@ -2488,19 +2488,19 @@
         <v>177221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>157800</v>
+        <v>156399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>196785</v>
+        <v>198111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3063302448349439</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.272761352555575</v>
+        <v>0.2703393613683205</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3401463737589149</v>
+        <v>0.3424383371182965</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -2509,19 +2509,19 @@
         <v>47704</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37519</v>
+        <v>38211</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60100</v>
+        <v>60998</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05803179055559424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04564145196015874</v>
+        <v>0.04648301620819962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07311057321418682</v>
+        <v>0.07420357265994229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>310</v>
@@ -2530,19 +2530,19 @@
         <v>224925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>203326</v>
+        <v>200166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>248420</v>
+        <v>250518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1605959168499321</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1451737106373851</v>
+        <v>0.1429180459191234</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1773711810484316</v>
+        <v>0.1788688737002833</v>
       </c>
     </row>
     <row r="6">
@@ -2559,19 +2559,19 @@
         <v>7129</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2257</v>
+        <v>2422</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15395</v>
+        <v>16019</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.012322054295899</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003901242751429421</v>
+        <v>0.004186097827177796</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02660974796792175</v>
+        <v>0.02768939096491478</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -2580,19 +2580,19 @@
         <v>7927</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3976</v>
+        <v>4242</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13521</v>
+        <v>13960</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009643585484109707</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004837284693192975</v>
+        <v>0.005160358190067711</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01644850836685381</v>
+        <v>0.01698224352339116</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -2601,19 +2601,19 @@
         <v>15056</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8915</v>
+        <v>8893</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24828</v>
+        <v>24099</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.01074997502763354</v>
+        <v>0.01074997502763353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006365268141162005</v>
+        <v>0.006349366120845276</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01772683509260576</v>
+        <v>0.01720667317563188</v>
       </c>
     </row>
     <row r="7">
@@ -2630,19 +2630,19 @@
         <v>145352</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125676</v>
+        <v>125102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>165804</v>
+        <v>166144</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2512437046040558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2172336910364824</v>
+        <v>0.216241360284075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2865953511988206</v>
+        <v>0.2871831355670718</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -2651,19 +2651,19 @@
         <v>78237</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66591</v>
+        <v>65805</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92589</v>
+        <v>91725</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09517476246970688</v>
+        <v>0.09517476246970685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08100716940672086</v>
+        <v>0.08005156119882167</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1126337574463956</v>
+        <v>0.1115825442862992</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>280</v>
@@ -2672,19 +2672,19 @@
         <v>223589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>202803</v>
+        <v>198576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252626</v>
+        <v>249442</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1596418359283367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1448009077856451</v>
+        <v>0.1417822539747514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1803744033548081</v>
+        <v>0.1781009732877555</v>
       </c>
     </row>
     <row r="8">
@@ -2776,19 +2776,19 @@
         <v>1256629</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1207226</v>
+        <v>1207116</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1312289</v>
+        <v>1310476</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5639298455292638</v>
+        <v>0.5639298455292637</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.541759706479946</v>
+        <v>0.5417102269021503</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5889078078796244</v>
+        <v>0.5880944607053825</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1952</v>
@@ -2797,19 +2797,19 @@
         <v>1445591</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1400072</v>
+        <v>1406084</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1484072</v>
+        <v>1485263</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6661756795412008</v>
+        <v>0.6661756795412012</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6451993765645986</v>
+        <v>0.6479697796835816</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6839091722433294</v>
+        <v>0.6844580657206757</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3038</v>
@@ -2818,19 +2818,19 @@
         <v>2702220</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2630108</v>
+        <v>2625770</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2766231</v>
+        <v>2769327</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6143744418806839</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5979792017229065</v>
+        <v>0.5969929484497837</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6289280925627097</v>
+        <v>0.62963182664489</v>
       </c>
     </row>
     <row r="10">
@@ -2847,19 +2847,19 @@
         <v>333396</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>297532</v>
+        <v>299845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>368354</v>
+        <v>369149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1496158970874659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1335217792920857</v>
+        <v>0.1345595264856962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1653041252645396</v>
+        <v>0.1656608369897881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>309</v>
@@ -2868,19 +2868,19 @@
         <v>222123</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199515</v>
+        <v>195395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>246761</v>
+        <v>246706</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1023616460453456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09194326666865531</v>
+        <v>0.09004438765062989</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1137157793850619</v>
+        <v>0.1136900884291156</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>669</v>
@@ -2889,19 +2889,19 @@
         <v>555519</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>516247</v>
+        <v>514475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>596230</v>
+        <v>599040</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1263022663391449</v>
+        <v>0.1263022663391448</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1173734830716485</v>
+        <v>0.1169706142986151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1355583104639325</v>
+        <v>0.1361971312515527</v>
       </c>
     </row>
     <row r="11">
@@ -2918,19 +2918,19 @@
         <v>60081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42538</v>
+        <v>42882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>84672</v>
+        <v>83990</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02696203362719558</v>
+        <v>0.02696203362719557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01908944158427813</v>
+        <v>0.01924404284068369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03799772953420263</v>
+        <v>0.03769183631755845</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -2939,19 +2939,19 @@
         <v>42947</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32128</v>
+        <v>32357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57120</v>
+        <v>56810</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01979116308355081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0148058332993227</v>
+        <v>0.01491129009088235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02632284882597383</v>
+        <v>0.02617992163155172</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -2960,19 +2960,19 @@
         <v>103027</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>82251</v>
+        <v>80780</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>130835</v>
+        <v>129819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02342417143889148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01870052784780134</v>
+        <v>0.01836598938090319</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02974647032084922</v>
+        <v>0.02951560711858726</v>
       </c>
     </row>
     <row r="12">
@@ -2989,19 +2989,19 @@
         <v>578238</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>532842</v>
+        <v>533621</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>623841</v>
+        <v>622114</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2594922237560746</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2391200580984714</v>
+        <v>0.2394700460913781</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2799575686464034</v>
+        <v>0.279182493227365</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>602</v>
@@ -3010,19 +3010,19 @@
         <v>459324</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>429494</v>
+        <v>422267</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>497493</v>
+        <v>493037</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2116715113299025</v>
+        <v>0.2116715113299026</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1979250203613874</v>
+        <v>0.194594445799534</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2292613005540657</v>
+        <v>0.2272075208030337</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1108</v>
@@ -3031,19 +3031,19 @@
         <v>1037561</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>981195</v>
+        <v>983431</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1100614</v>
+        <v>1103671</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2358991203412797</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2230836633537085</v>
+        <v>0.2235919748766511</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2502346795101519</v>
+        <v>0.2509296502727461</v>
       </c>
     </row>
     <row r="13">
@@ -3135,19 +3135,19 @@
         <v>451436</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>420609</v>
+        <v>418691</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>477158</v>
+        <v>475967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6344079612678684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5910851503120997</v>
+        <v>0.5883903914120111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6705553785931212</v>
+        <v>0.6688804453047993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>706</v>
@@ -3156,19 +3156,19 @@
         <v>519436</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>496380</v>
+        <v>496042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>540036</v>
+        <v>541052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7092107643020044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6777312565800019</v>
+        <v>0.6772704561161175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7373376876561625</v>
+        <v>0.7387236704076068</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1119</v>
@@ -3177,19 +3177,19 @@
         <v>970872</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>936032</v>
+        <v>935961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1007489</v>
+        <v>1005069</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6723487958491754</v>
+        <v>0.6723487958491755</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.648220941822456</v>
+        <v>0.6481718702810355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6977065011371613</v>
+        <v>0.6960306042777479</v>
       </c>
     </row>
     <row r="15">
@@ -3206,19 +3206,19 @@
         <v>149869</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>128248</v>
+        <v>128454</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>172787</v>
+        <v>175798</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2106118908685005</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1802286693018677</v>
+        <v>0.1805180108871551</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2428190715284501</v>
+        <v>0.2470502147762926</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>140</v>
@@ -3227,19 +3227,19 @@
         <v>95589</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>79856</v>
+        <v>80391</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>111587</v>
+        <v>110987</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1305126554101829</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1090307047984934</v>
+        <v>0.1097614842862299</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1523554846865758</v>
+        <v>0.1515360208740199</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>304</v>
@@ -3248,19 +3248,19 @@
         <v>245458</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>220453</v>
+        <v>220778</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>276050</v>
+        <v>273156</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1699846453730831</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1526680810430189</v>
+        <v>0.1528931992186701</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1911699763798279</v>
+        <v>0.1891662014493981</v>
       </c>
     </row>
     <row r="16">
@@ -3277,19 +3277,19 @@
         <v>12479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6851</v>
+        <v>7134</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22351</v>
+        <v>21734</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01753704910578455</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009628240231966005</v>
+        <v>0.01002582646103064</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03140988744686915</v>
+        <v>0.03054277426032983</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -3298,19 +3298,19 @@
         <v>25859</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18447</v>
+        <v>17742</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36618</v>
+        <v>36743</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03530668937387705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02518666385750886</v>
+        <v>0.02422385515327434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04999648928492647</v>
+        <v>0.05016647941128825</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -3319,19 +3319,19 @@
         <v>38338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28132</v>
+        <v>28871</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50609</v>
+        <v>52845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02655001325464624</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01948207029643009</v>
+        <v>0.01999350517257396</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03504751586188123</v>
+        <v>0.03659597097476746</v>
       </c>
     </row>
     <row r="17">
@@ -3348,19 +3348,19 @@
         <v>97803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80779</v>
+        <v>78426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>118957</v>
+        <v>118831</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1374430987578466</v>
+        <v>0.1374430987578465</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1135197329830837</v>
+        <v>0.1102121903939133</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1671708392246255</v>
+        <v>0.1669949805781593</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>122</v>
@@ -3369,19 +3369,19 @@
         <v>91530</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75711</v>
+        <v>76222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108514</v>
+        <v>109134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1249698909139357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1033724915203624</v>
+        <v>0.1040695708869811</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1481587378121223</v>
+        <v>0.1490061156860952</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>214</v>
@@ -3390,19 +3390,19 @@
         <v>189332</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>162237</v>
+        <v>164465</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>214043</v>
+        <v>215951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1311165455230952</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1123523079807845</v>
+        <v>0.1138956080209003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1482291960074744</v>
+        <v>0.1495505700675912</v>
       </c>
     </row>
     <row r="18">
@@ -3494,19 +3494,19 @@
         <v>1956893</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1894432</v>
+        <v>1888480</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2025832</v>
+        <v>2018550</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5561790449573217</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5384267291893483</v>
+        <v>0.536734906092067</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5757725173746727</v>
+        <v>0.5737029028689112</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3875</v>
@@ -3515,19 +3515,19 @@
         <v>2653195</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2606401</v>
+        <v>2602537</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2704890</v>
+        <v>2701422</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.712375092916541</v>
+        <v>0.7123750929165412</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6998111065086985</v>
+        <v>0.6987735273402099</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7262550558643182</v>
+        <v>0.7253239580214662</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5668</v>
@@ -3536,19 +3536,19 @@
         <v>4610089</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4522778</v>
+        <v>4527237</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4688919</v>
+        <v>4686057</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6364980493525955</v>
+        <v>0.6364980493525956</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6244433942382673</v>
+        <v>0.6250589729410633</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6473819402101531</v>
+        <v>0.6469867618845925</v>
       </c>
     </row>
     <row r="20">
@@ -3565,19 +3565,19 @@
         <v>660485</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>612882</v>
+        <v>611843</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>704856</v>
+        <v>704472</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1877200234911138</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1741905727987169</v>
+        <v>0.1738952057791189</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2003309261191627</v>
+        <v>0.2002216073431826</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>524</v>
@@ -3586,19 +3586,19 @@
         <v>365417</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>336068</v>
+        <v>336297</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>400218</v>
+        <v>398558</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09811331401675494</v>
+        <v>0.09811331401675495</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09023337443500365</v>
+        <v>0.09029478285336535</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1074574517766744</v>
+        <v>0.1070117830201517</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1283</v>
@@ -3607,19 +3607,19 @@
         <v>1025902</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>969512</v>
+        <v>974647</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1085378</v>
+        <v>1086744</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1416425344243218</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1338570110360959</v>
+        <v>0.1345659503261752</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.149854196189578</v>
+        <v>0.150042758535453</v>
       </c>
     </row>
     <row r="21">
@@ -3636,19 +3636,19 @@
         <v>79688</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>60165</v>
+        <v>58831</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>105239</v>
+        <v>107126</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02264868106404117</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01709981491261051</v>
+        <v>0.01672075586356955</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0299105255855148</v>
+        <v>0.03044679484497276</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>103</v>
@@ -3657,19 +3657,19 @@
         <v>76733</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>61586</v>
+        <v>62617</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>93893</v>
+        <v>93256</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02060258514674542</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01653553128735736</v>
+        <v>0.01681240686326154</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02521009680826726</v>
+        <v>0.02503899117528908</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>158</v>
@@ -3678,19 +3678,19 @@
         <v>156421</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>131824</v>
+        <v>130810</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191399</v>
+        <v>187024</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02159653929015112</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01820049026475379</v>
+        <v>0.01806049870595802</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02642575262762796</v>
+        <v>0.02582171409477759</v>
       </c>
     </row>
     <row r="22">
@@ -3707,19 +3707,19 @@
         <v>821392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>763331</v>
+        <v>764963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>879150</v>
+        <v>880964</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2334522504875233</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2169503658366851</v>
+        <v>0.2174143313959827</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2498677739526278</v>
+        <v>0.2503833712103864</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>847</v>
@@ -3728,19 +3728,19 @@
         <v>629091</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>588541</v>
+        <v>586111</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>671343</v>
+        <v>667677</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1689090079199585</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1580214649862356</v>
+        <v>0.1573691544243875</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1802535182463539</v>
+        <v>0.1792693646555501</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1602</v>
@@ -3749,19 +3749,19 @@
         <v>1450483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1382093</v>
+        <v>1380780</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1525742</v>
+        <v>1518543</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2002628769329316</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1908205014249134</v>
+        <v>0.1906393024959097</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2106535786191435</v>
+        <v>0.2096596043909808</v>
       </c>
     </row>
     <row r="23">
